--- a/artfynd/A 19354-2023.xlsx
+++ b/artfynd/A 19354-2023.xlsx
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>443168.7301459719</v>
+        <v>443169</v>
       </c>
       <c r="R2" t="n">
-        <v>6196797.779533402</v>
+        <v>6196798</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -758,19 +758,9 @@
           <t>2013-07-03</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2013-07-03</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">

--- a/artfynd/A 19354-2023.xlsx
+++ b/artfynd/A 19354-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112150762</v>
       </c>
       <c r="B2" t="n">
-        <v>44322</v>
+        <v>44328</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
